--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>11234.71</v>
+        <v>13062.18</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>12545.8</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>247089.07</v>
+        <v>261462.34</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>3164</v>
+        <v>4963</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>4496</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>100409.05</v>
+        <v>106704.05</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -787,10 +787,10 @@
         <v>3855.3</v>
       </c>
       <c r="AC4">
-        <v>776</v>
+        <v>3823</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>2304</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>89253.5</v>
+        <v>94604.5</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -888,10 +888,10 @@
         <v>1434</v>
       </c>
       <c r="AC5">
-        <v>1424</v>
+        <v>3832</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>2631</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>74862.84</v>
+        <v>79901.84</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -989,10 +989,10 @@
         <v>5289.3</v>
       </c>
       <c r="AC6">
-        <v>16598.71</v>
+        <v>25680.18</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>21976.8</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>511614.46</v>
+        <v>542672.73</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -504,91 +504,91 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>8680.469999999999</v>
+        <v>4912.87</v>
       </c>
       <c r="C2">
-        <v>18762.2</v>
+        <v>11208.15</v>
       </c>
       <c r="D2">
-        <v>7549.5</v>
+        <v>2031</v>
       </c>
       <c r="E2">
-        <v>13041.45</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3610</v>
+        <v>23697.44</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>10948.72</v>
       </c>
       <c r="H2">
-        <v>14361.29</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>26836.09</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>9381.959999999999</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>11394.5</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>14950.35</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>2068.9</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17028.7</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>6321.79</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>10766.2</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>11299.29</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>6432.35</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>832.9</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>8618.959999999999</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>10535.82</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>8877.450000000001</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>10253.02</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>11534.17</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>2717</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>13062.18</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>12545.8</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>261462.34</v>
+        <v>52798.18</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -605,91 +605,91 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>5121</v>
+        <v>4803</v>
       </c>
       <c r="C3">
-        <v>4626.5</v>
+        <v>4651.9</v>
       </c>
       <c r="D3">
-        <v>5985</v>
+        <v>19192</v>
       </c>
       <c r="E3">
-        <v>4393.8</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>7377.5</v>
+        <v>5661</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>5242.9</v>
       </c>
       <c r="H3">
-        <v>2334</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4720.25</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5262</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4696</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>3303</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>7833</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3524</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3751</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2778</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>6858</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>2673</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>2582</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>2113</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1027</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>6763</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>3854</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>2627</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>3043</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>4963</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>4496</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>106704.05</v>
+        <v>39550.8</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -706,91 +706,91 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2495</v>
+        <v>5020</v>
       </c>
       <c r="C4">
-        <v>2378</v>
+        <v>2670</v>
       </c>
       <c r="D4">
-        <v>1408.9</v>
+        <v>4432</v>
       </c>
       <c r="E4">
-        <v>4801.8</v>
+        <v>2250</v>
       </c>
       <c r="F4">
-        <v>5026</v>
+        <v>3344.5</v>
       </c>
       <c r="G4">
-        <v>3189.9</v>
+        <v>679</v>
       </c>
       <c r="H4">
-        <v>2999.9</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>5058</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2463.5</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3972.9</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>2283</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>5827.5</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2328</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2260</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>2561.9</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>3212</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>2770</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>4733</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>3444</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1219</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>3187</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1567</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>2593</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>3733</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>3309.9</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>5800</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>3855.3</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>3823</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>2304</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>94604.5</v>
+        <v>18395.5</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -807,91 +807,91 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3074.9</v>
+        <v>2321</v>
       </c>
       <c r="C5">
-        <v>3452.01</v>
+        <v>4256.58</v>
       </c>
       <c r="D5">
-        <v>4875.9</v>
+        <v>3600</v>
       </c>
       <c r="E5">
-        <v>3162.86</v>
+        <v>2120</v>
       </c>
       <c r="F5">
-        <v>2496</v>
+        <v>2699.7</v>
       </c>
       <c r="G5">
-        <v>2633.31</v>
+        <v>864.8</v>
       </c>
       <c r="H5">
-        <v>2069</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1901</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4626</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>5652</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2296.9</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>5866.75</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>4123</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1272.9</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>3009.9</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1616</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2518.9</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>1636</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2305.9</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>1747.9</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>2090</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>1661.91</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>1792.8</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1741</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>2882</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>1434</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>3832</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>2631</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>79901.84</v>
+        <v>15862.08</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -908,91 +908,91 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>19371.37</v>
+        <v>17056.87</v>
       </c>
       <c r="C6">
-        <v>29218.71</v>
+        <v>22786.63</v>
       </c>
       <c r="D6">
-        <v>19819.3</v>
+        <v>29255</v>
       </c>
       <c r="E6">
-        <v>25399.91</v>
+        <v>4370</v>
       </c>
       <c r="F6">
-        <v>18509.5</v>
+        <v>35402.64</v>
       </c>
       <c r="G6">
-        <v>5823.21</v>
+        <v>17735.42</v>
       </c>
       <c r="H6">
-        <v>21764.19</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>38515.34</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>21733.46</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>25715.4</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>22833.25</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>21596.15</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>6451</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>24085.6</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>15644.59</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>18372.2</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>23446.19</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>15474.35</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>9164.799999999999</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>2719</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>15666.86</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>15219.82</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>19895.36</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>19632.82</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>19212.07</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>14442</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>5289.3</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>25680.18</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>21976.8</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>542672.73</v>
+        <v>126606.56</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -522,16 +522,16 @@
         <v>10948.72</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>16440.91</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>14810.14</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>16474.68</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1687</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>52798.18</v>
+        <v>102210.91</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -620,19 +620,19 @@
         <v>5661</v>
       </c>
       <c r="G3">
-        <v>5242.9</v>
+        <v>12661.9</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7883</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>7395</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4342</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>6730</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>39550.8</v>
+        <v>73319.8</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -721,22 +721,22 @@
         <v>3344.5</v>
       </c>
       <c r="G4">
-        <v>679</v>
+        <v>2487</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4148</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3419.9</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2395.49</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>4368</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2742</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>18395.5</v>
+        <v>37276.89</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -822,22 +822,22 @@
         <v>2699.7</v>
       </c>
       <c r="G5">
-        <v>864.8</v>
+        <v>2150.81</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2966</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2107.11</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2296</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2017.01</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6974.9</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>15862.08</v>
+        <v>33509.11</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -923,22 +923,22 @@
         <v>35402.64</v>
       </c>
       <c r="G6">
-        <v>17735.42</v>
+        <v>28248.43</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>31437.91</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>27732.15</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>25508.17</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14802.01</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>9716.9</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>126606.56</v>
+        <v>246316.71</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -537,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>23495.43</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>102210.91</v>
+        <v>125706.34</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2350</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>73319.8</v>
+        <v>75669.8</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -736,10 +736,10 @@
         <v>4368</v>
       </c>
       <c r="L4">
-        <v>2742</v>
+        <v>2802</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2638</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>37276.89</v>
+        <v>39974.89</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -840,7 +840,7 @@
         <v>6974.9</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2702.01</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>33509.11</v>
+        <v>36211.12</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -938,10 +938,10 @@
         <v>14802.01</v>
       </c>
       <c r="L6">
-        <v>9716.9</v>
+        <v>9776.9</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>31185.44</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>246316.71</v>
+        <v>277562.15</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -540,7 +540,7 @@
         <v>23495.43</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>13707.95</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>125706.34</v>
+        <v>139414.29</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -638,10 +638,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2350</v>
+        <v>2555</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6272</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>75669.8</v>
+        <v>82146.8</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -739,10 +739,10 @@
         <v>2802</v>
       </c>
       <c r="M4">
-        <v>2638</v>
+        <v>2668</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>3201.9</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>39974.89</v>
+        <v>43206.79</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -843,7 +843,7 @@
         <v>2702.01</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>3022.01</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>36211.12</v>
+        <v>39233.13</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -941,10 +941,10 @@
         <v>9776.9</v>
       </c>
       <c r="M6">
-        <v>31185.44</v>
+        <v>31420.44</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>26203.86</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>277562.15</v>
+        <v>304001.01</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -28,10 +28,10 @@
     <t>Bibi Cell Vieiralves</t>
   </si>
   <si>
-    <t>Bibi Cell Manauara</t>
+    <t>Bibi Cell Ponta Negra</t>
   </si>
   <si>
-    <t>Bibi Cell Ponta Negra</t>
+    <t>Bibi Cell Manauara</t>
   </si>
   <si>
     <t>total</t>
@@ -543,7 +543,7 @@
         <v>13707.95</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>22226.83</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>139414.29</v>
+        <v>161641.12</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -644,7 +644,7 @@
         <v>6272</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>6484.9</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>82146.8</v>
+        <v>88631.7</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -706,46 +706,46 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5020</v>
+        <v>2321</v>
       </c>
       <c r="C4">
-        <v>2670</v>
+        <v>4256.58</v>
       </c>
       <c r="D4">
-        <v>4432</v>
+        <v>3600</v>
       </c>
       <c r="E4">
-        <v>2250</v>
+        <v>2120</v>
       </c>
       <c r="F4">
-        <v>3344.5</v>
+        <v>2699.7</v>
       </c>
       <c r="G4">
-        <v>2487</v>
+        <v>2150.81</v>
       </c>
       <c r="H4">
-        <v>4148</v>
+        <v>2966</v>
       </c>
       <c r="I4">
-        <v>3419.9</v>
+        <v>2107.11</v>
       </c>
       <c r="J4">
-        <v>2395.49</v>
+        <v>2296</v>
       </c>
       <c r="K4">
-        <v>4368</v>
+        <v>2017.01</v>
       </c>
       <c r="L4">
-        <v>2802</v>
+        <v>6974.9</v>
       </c>
       <c r="M4">
-        <v>2668</v>
+        <v>2702.01</v>
       </c>
       <c r="N4">
-        <v>3201.9</v>
+        <v>3022.01</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>6136.45</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>43206.79</v>
+        <v>45369.58</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -807,46 +807,46 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2321</v>
+        <v>5020</v>
       </c>
       <c r="C5">
-        <v>4256.58</v>
+        <v>2670</v>
       </c>
       <c r="D5">
-        <v>3600</v>
+        <v>4432</v>
       </c>
       <c r="E5">
-        <v>2120</v>
+        <v>2250</v>
       </c>
       <c r="F5">
-        <v>2699.7</v>
+        <v>3344.5</v>
       </c>
       <c r="G5">
-        <v>2150.81</v>
+        <v>2487</v>
       </c>
       <c r="H5">
-        <v>2966</v>
+        <v>4148</v>
       </c>
       <c r="I5">
-        <v>2107.11</v>
+        <v>3419.9</v>
       </c>
       <c r="J5">
-        <v>2296</v>
+        <v>2395.49</v>
       </c>
       <c r="K5">
-        <v>2017.01</v>
+        <v>4368</v>
       </c>
       <c r="L5">
-        <v>6974.9</v>
+        <v>2802</v>
       </c>
       <c r="M5">
-        <v>2702.01</v>
+        <v>2668</v>
       </c>
       <c r="N5">
-        <v>3022.01</v>
+        <v>3201.9</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1561</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>39233.13</v>
+        <v>44767.79</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -947,7 +947,7 @@
         <v>26203.86</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>36409.18</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>304001.01</v>
+        <v>340410.19</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -540,19 +540,19 @@
         <v>23495.43</v>
       </c>
       <c r="N2">
-        <v>13707.95</v>
+        <v>14035.95</v>
       </c>
       <c r="O2">
         <v>22226.83</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>13987.79</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>9198.35</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>4251.8</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>161641.12</v>
+        <v>189407.06</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -647,13 +647,13 @@
         <v>6484.9</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>13874</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>11612</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>3198</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>88631.7</v>
+        <v>117315.7</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -748,16 +748,16 @@
         <v>6136.45</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>3986</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>4253.01</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>3270</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>3749.01</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>45369.58</v>
+        <v>60627.6</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -846,19 +846,19 @@
         <v>3201.9</v>
       </c>
       <c r="O5">
-        <v>1561</v>
+        <v>1726</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>2093</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>5340.4</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>3814</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>4336</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>44767.79</v>
+        <v>60516.19</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -944,22 +944,22 @@
         <v>31420.44</v>
       </c>
       <c r="N6">
-        <v>26203.86</v>
+        <v>26531.86</v>
       </c>
       <c r="O6">
-        <v>36409.18</v>
+        <v>36574.18</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>33940.79</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>30403.76</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>14533.8</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>8085.01</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>340410.19</v>
+        <v>427866.55</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -549,16 +549,16 @@
         <v>13987.79</v>
       </c>
       <c r="Q2">
-        <v>9198.35</v>
+        <v>9293.35</v>
       </c>
       <c r="R2">
-        <v>4251.8</v>
+        <v>4450.8</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>14019.67</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>189407.06</v>
+        <v>203720.73</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>4889</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>117315.7</v>
+        <v>122204.7</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -760,7 +760,7 @@
         <v>3749.01</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>6272</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>60627.6</v>
+        <v>66899.60000000001</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -855,13 +855,13 @@
         <v>5340.4</v>
       </c>
       <c r="R5">
-        <v>3814</v>
+        <v>4202</v>
       </c>
       <c r="S5">
         <v>4336</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1743</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>60516.19</v>
+        <v>62647.19</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -953,16 +953,16 @@
         <v>33940.79</v>
       </c>
       <c r="Q6">
-        <v>30403.76</v>
+        <v>30498.76</v>
       </c>
       <c r="R6">
-        <v>14533.8</v>
+        <v>15120.8</v>
       </c>
       <c r="S6">
         <v>8085.01</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>26923.67</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>427866.55</v>
+        <v>455472.22</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -561,10 +561,10 @@
         <v>14019.67</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>21383.3</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>13491.76</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>203720.73</v>
+        <v>238595.79</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -662,10 +662,10 @@
         <v>4889</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>8356</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>8011.9</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>122204.7</v>
+        <v>138572.6</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -763,10 +763,10 @@
         <v>6272</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>2017</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1656</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>66899.60000000001</v>
+        <v>70572.60000000001</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -864,10 +864,10 @@
         <v>1743</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1334</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1527</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>62647.19</v>
+        <v>65508.19</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -965,10 +965,10 @@
         <v>26923.67</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>33090.3</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>24686.66</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>455472.22</v>
+        <v>513249.18</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -567,7 +567,7 @@
         <v>13491.76</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>16452.6</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>238595.79</v>
+        <v>255048.39</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -668,7 +668,7 @@
         <v>8011.9</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>5538</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>138572.6</v>
+        <v>144110.6</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -766,10 +766,10 @@
         <v>2017</v>
       </c>
       <c r="V4">
-        <v>1656</v>
+        <v>1845</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>2804.7</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>70572.60000000001</v>
+        <v>73566.3</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -867,10 +867,10 @@
         <v>1334</v>
       </c>
       <c r="V5">
-        <v>1527</v>
+        <v>2645.5</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>2351.99</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>65508.19</v>
+        <v>68978.67999999999</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -968,10 +968,10 @@
         <v>33090.3</v>
       </c>
       <c r="V6">
-        <v>24686.66</v>
+        <v>25994.16</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>27147.29</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>513249.18</v>
+        <v>541703.97</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -570,10 +570,10 @@
         <v>16452.6</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>15420.59</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>5091.8</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>255048.39</v>
+        <v>275560.78</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -671,10 +671,10 @@
         <v>5538</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>3054.8</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>20778.9</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>144110.6</v>
+        <v>167944.3</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -772,13 +772,13 @@
         <v>2804.7</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1998</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>5791.02</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>947</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>73566.3</v>
+        <v>82302.32000000001</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -873,13 +873,13 @@
         <v>2351.99</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>3346.9</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>3261</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>739.9</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>68978.67999999999</v>
+        <v>76326.48</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -974,13 +974,13 @@
         <v>27147.29</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>23820.29</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>34922.72</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1686.9</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>541703.97</v>
+        <v>602133.88</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>15187.76</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>275560.78</v>
+        <v>290748.54</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>5175</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>167944.3</v>
+        <v>173119.3</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -778,10 +778,10 @@
         <v>5791.02</v>
       </c>
       <c r="Z4">
-        <v>947</v>
+        <v>1556</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>5059.01</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>82302.32000000001</v>
+        <v>87970.33</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -879,10 +879,10 @@
         <v>3261</v>
       </c>
       <c r="Z5">
-        <v>739.9</v>
+        <v>2268.9</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1972</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>76326.48</v>
+        <v>79827.48</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -980,10 +980,10 @@
         <v>34922.72</v>
       </c>
       <c r="Z6">
-        <v>1686.9</v>
+        <v>3824.9</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>27393.77</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>602133.88</v>
+        <v>631665.65</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -582,7 +582,7 @@
         <v>15187.76</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>5032.31</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>290748.54</v>
+        <v>295780.85</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -683,7 +683,7 @@
         <v>5175</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>13806</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>173119.3</v>
+        <v>186925.3</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -784,7 +784,7 @@
         <v>5059.01</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>3748</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>87970.33</v>
+        <v>91718.33</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -885,7 +885,7 @@
         <v>1972</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1570</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>79827.48</v>
+        <v>81397.48</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -986,7 +986,7 @@
         <v>27393.77</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>24156.31</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>631665.65</v>
+        <v>655821.96</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -585,7 +585,7 @@
         <v>5032.31</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>11700.63</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>295780.85</v>
+        <v>307481.48</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -686,7 +686,7 @@
         <v>13806</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>6882</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>186925.3</v>
+        <v>193807.3</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -787,7 +787,7 @@
         <v>3748</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1639</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>91718.33</v>
+        <v>93357.33</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -888,7 +888,7 @@
         <v>1570</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1398</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>81397.48</v>
+        <v>82795.48</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -989,7 +989,7 @@
         <v>24156.31</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>21619.63</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>655821.96</v>
+        <v>677441.59</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -588,7 +588,7 @@
         <v>11700.63</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>10927.75</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>307481.48</v>
+        <v>318409.23</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>5175</v>
+        <v>5613</v>
       </c>
       <c r="AB3">
         <v>13806</v>
       </c>
       <c r="AC3">
-        <v>6882</v>
+        <v>6981</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>193807.3</v>
+        <v>198184.3</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -790,7 +790,7 @@
         <v>1639</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>3115</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>93357.33</v>
+        <v>96472.33</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -891,7 +891,7 @@
         <v>1398</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1563</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>82795.48</v>
+        <v>84358.48</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -983,16 +983,16 @@
         <v>3824.9</v>
       </c>
       <c r="AA6">
-        <v>27393.77</v>
+        <v>27831.77</v>
       </c>
       <c r="AB6">
         <v>24156.31</v>
       </c>
       <c r="AC6">
-        <v>21619.63</v>
+        <v>21718.63</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>19445.75</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>677441.59</v>
+        <v>697424.34</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>total_loja</t>
   </si>
@@ -22,16 +22,10 @@
     <t>nome</t>
   </si>
   <si>
-    <t>Bibi Cell Mundi</t>
-  </si>
-  <si>
-    <t>Bibi Cell Vieiralves</t>
+    <t>Bibi Cell Manauara</t>
   </si>
   <si>
     <t>Bibi Cell Ponta Negra</t>
-  </si>
-  <si>
-    <t>Bibi Cell Manauara</t>
   </si>
   <si>
     <t>total</t>
@@ -392,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG6"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,91 +498,91 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>4912.87</v>
+        <v>3340</v>
       </c>
       <c r="C2">
-        <v>11208.15</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2031</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23697.44</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>10948.72</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>16440.91</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>14810.14</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>16474.68</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1687</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>23495.43</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>14035.95</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>22226.83</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13987.79</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>9293.35</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>4450.8</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>14019.67</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>21383.3</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>13491.76</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>16452.6</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>15420.59</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>5091.8</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>15187.76</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>5032.31</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>11700.63</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>10927.75</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -597,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>318409.23</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -605,91 +599,91 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4803</v>
+        <v>1800.01</v>
       </c>
       <c r="C3">
-        <v>4651.9</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>19192</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5661</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>12661.9</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>7883</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>7395</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4342</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>6730</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2555</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>6272</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>6484.9</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13874</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>11612</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>3198</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>4889</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>8356</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>8011.9</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>5538</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>3054.8</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>20778.9</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>5613</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>13806</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>6981</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>3840</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -698,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>198184.3</v>
+        <v>1800.01</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -706,91 +700,91 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2321</v>
+        <v>5140.01</v>
       </c>
       <c r="C4">
-        <v>4256.58</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2120</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>2699.7</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>2150.81</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2966</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2107.11</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2296</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2017.01</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6974.9</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>2702.01</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>3022.01</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>6136.45</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>3986</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>4253.01</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>3270</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>3749.01</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>6272</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>1845</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>2804.7</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>1998</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>5791.02</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>1556</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>5059.01</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>3748</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>1639</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>3115</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -799,209 +793,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>96472.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>5020</v>
-      </c>
-      <c r="C5">
-        <v>2670</v>
-      </c>
-      <c r="D5">
-        <v>4432</v>
-      </c>
-      <c r="E5">
-        <v>2250</v>
-      </c>
-      <c r="F5">
-        <v>3344.5</v>
-      </c>
-      <c r="G5">
-        <v>2487</v>
-      </c>
-      <c r="H5">
-        <v>4148</v>
-      </c>
-      <c r="I5">
-        <v>3419.9</v>
-      </c>
-      <c r="J5">
-        <v>2395.49</v>
-      </c>
-      <c r="K5">
-        <v>4368</v>
-      </c>
-      <c r="L5">
-        <v>2802</v>
-      </c>
-      <c r="M5">
-        <v>2668</v>
-      </c>
-      <c r="N5">
-        <v>3201.9</v>
-      </c>
-      <c r="O5">
-        <v>1726</v>
-      </c>
-      <c r="P5">
-        <v>2093</v>
-      </c>
-      <c r="Q5">
-        <v>5340.4</v>
-      </c>
-      <c r="R5">
-        <v>4202</v>
-      </c>
-      <c r="S5">
-        <v>4336</v>
-      </c>
-      <c r="T5">
-        <v>1743</v>
-      </c>
-      <c r="U5">
-        <v>1334</v>
-      </c>
-      <c r="V5">
-        <v>2645.5</v>
-      </c>
-      <c r="W5">
-        <v>2351.99</v>
-      </c>
-      <c r="X5">
-        <v>3346.9</v>
-      </c>
-      <c r="Y5">
-        <v>3261</v>
-      </c>
-      <c r="Z5">
-        <v>2268.9</v>
-      </c>
-      <c r="AA5">
-        <v>1972</v>
-      </c>
-      <c r="AB5">
-        <v>1570</v>
-      </c>
-      <c r="AC5">
-        <v>1398</v>
-      </c>
-      <c r="AD5">
-        <v>1563</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>84358.48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>17056.87</v>
-      </c>
-      <c r="C6">
-        <v>22786.63</v>
-      </c>
-      <c r="D6">
-        <v>29255</v>
-      </c>
-      <c r="E6">
-        <v>4370</v>
-      </c>
-      <c r="F6">
-        <v>35402.64</v>
-      </c>
-      <c r="G6">
-        <v>28248.43</v>
-      </c>
-      <c r="H6">
-        <v>31437.91</v>
-      </c>
-      <c r="I6">
-        <v>27732.15</v>
-      </c>
-      <c r="J6">
-        <v>25508.17</v>
-      </c>
-      <c r="K6">
-        <v>14802.01</v>
-      </c>
-      <c r="L6">
-        <v>9776.9</v>
-      </c>
-      <c r="M6">
-        <v>31420.44</v>
-      </c>
-      <c r="N6">
-        <v>26531.86</v>
-      </c>
-      <c r="O6">
-        <v>36574.18</v>
-      </c>
-      <c r="P6">
-        <v>33940.79</v>
-      </c>
-      <c r="Q6">
-        <v>30498.76</v>
-      </c>
-      <c r="R6">
-        <v>15120.8</v>
-      </c>
-      <c r="S6">
-        <v>8085.01</v>
-      </c>
-      <c r="T6">
-        <v>26923.67</v>
-      </c>
-      <c r="U6">
-        <v>33090.3</v>
-      </c>
-      <c r="V6">
-        <v>25994.16</v>
-      </c>
-      <c r="W6">
-        <v>27147.29</v>
-      </c>
-      <c r="X6">
-        <v>23820.29</v>
-      </c>
-      <c r="Y6">
-        <v>34922.72</v>
-      </c>
-      <c r="Z6">
-        <v>3824.9</v>
-      </c>
-      <c r="AA6">
-        <v>27831.77</v>
-      </c>
-      <c r="AB6">
-        <v>24156.31</v>
-      </c>
-      <c r="AC6">
-        <v>21718.63</v>
-      </c>
-      <c r="AD6">
-        <v>19445.75</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>697424.34</v>
+        <v>5140.01</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>total_loja</t>
   </si>
@@ -22,10 +22,16 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Bibi Cell Mundi</t>
+  </si>
+  <si>
+    <t>Bibi Cell Ponta Negra</t>
+  </si>
+  <si>
     <t>Bibi Cell Manauara</t>
   </si>
   <si>
-    <t>Bibi Cell Ponta Negra</t>
+    <t>Bibi Cell Vieiralves</t>
   </si>
   <si>
     <t>total</t>
@@ -386,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,10 +504,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3340</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>17144.8</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -591,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>3340</v>
+        <v>17144.8</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -602,7 +608,7 @@
         <v>1800.01</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4670</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -692,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>1800.01</v>
+        <v>6470.01</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -700,100 +706,302 @@
         <v>4</v>
       </c>
       <c r="B4">
+        <v>3340</v>
+      </c>
+      <c r="C4">
+        <v>1374</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>4714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>4464</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>5140.01</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>5140.01</v>
+      <c r="C6">
+        <v>27652.8</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>32792.81</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -28,10 +28,10 @@
     <t>Bibi Cell Ponta Negra</t>
   </si>
   <si>
-    <t>Bibi Cell Manauara</t>
+    <t>Bibi Cell Vieiralves</t>
   </si>
   <si>
-    <t>Bibi Cell Vieiralves</t>
+    <t>Bibi Cell Manauara</t>
   </si>
   <si>
     <t>total</t>
@@ -510,7 +510,7 @@
         <v>17144.8</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>17353.24</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>17144.8</v>
+        <v>34498.04</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -611,7 +611,7 @@
         <v>4670</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1748.51</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>6470.01</v>
+        <v>8218.52</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -706,13 +706,13 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3340</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1374</v>
+        <v>4464</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3201</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>4714</v>
+        <v>7665</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -807,13 +807,13 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>3340</v>
       </c>
       <c r="C5">
-        <v>4464</v>
+        <v>1374</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2934</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>4464</v>
+        <v>7648</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -914,7 +914,7 @@
         <v>27652.8</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>25236.75</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>32792.81</v>
+        <v>58029.56</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -513,7 +513,7 @@
         <v>17353.24</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>25152.46</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>34498.04</v>
+        <v>59650.5</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -614,7 +614,7 @@
         <v>1748.51</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5327</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>8218.52</v>
+        <v>13545.52</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -715,7 +715,7 @@
         <v>3201</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3626</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>7665</v>
+        <v>11291</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -810,13 +810,13 @@
         <v>3340</v>
       </c>
       <c r="C5">
-        <v>1374</v>
+        <v>1519</v>
       </c>
       <c r="D5">
         <v>2934</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1267</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>7648</v>
+        <v>9060</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -911,13 +911,13 @@
         <v>5140.01</v>
       </c>
       <c r="C6">
-        <v>27652.8</v>
+        <v>27797.8</v>
       </c>
       <c r="D6">
         <v>25236.75</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>35372.46</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>58029.56</v>
+        <v>93547.02</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -516,7 +516,7 @@
         <v>25152.46</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>11845.35</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>59650.5</v>
+        <v>71495.85000000001</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -614,10 +614,10 @@
         <v>1748.51</v>
       </c>
       <c r="E3">
-        <v>5327</v>
+        <v>5592</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>3002</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>13545.52</v>
+        <v>16812.52</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -718,7 +718,7 @@
         <v>3626</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>4238</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>11291</v>
+        <v>15529</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -816,10 +816,10 @@
         <v>2934</v>
       </c>
       <c r="E5">
-        <v>1267</v>
+        <v>1819</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2503</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>9060</v>
+        <v>12115</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -917,10 +917,10 @@
         <v>25236.75</v>
       </c>
       <c r="E6">
-        <v>35372.46</v>
+        <v>36189.46</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>21588.35</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>93547.02</v>
+        <v>115952.37</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -25,10 +25,10 @@
     <t>Bibi Cell Mundi</t>
   </si>
   <si>
-    <t>Bibi Cell Ponta Negra</t>
+    <t>Bibi Cell Vieiralves</t>
   </si>
   <si>
-    <t>Bibi Cell Vieiralves</t>
+    <t>Bibi Cell Ponta Negra</t>
   </si>
   <si>
     <t>Bibi Cell Manauara</t>
@@ -519,10 +519,10 @@
         <v>11845.35</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>6867.91</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4071</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>71495.85000000001</v>
+        <v>82434.75999999999</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -605,25 +605,25 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1800.01</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4670</v>
+        <v>4464</v>
       </c>
       <c r="D3">
-        <v>1748.51</v>
+        <v>3201</v>
       </c>
       <c r="E3">
-        <v>5592</v>
+        <v>3626</v>
       </c>
       <c r="F3">
-        <v>3002</v>
+        <v>4238</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>4951</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7617.5</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>16812.52</v>
+        <v>28097.5</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -706,25 +706,25 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1800.01</v>
       </c>
       <c r="C4">
-        <v>4464</v>
+        <v>4670</v>
       </c>
       <c r="D4">
-        <v>3201</v>
+        <v>1748.51</v>
       </c>
       <c r="E4">
-        <v>3626</v>
+        <v>5592</v>
       </c>
       <c r="F4">
-        <v>4238</v>
+        <v>3002</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>823</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3138.5</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>15529</v>
+        <v>20774.02</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -822,10 +822,10 @@
         <v>2503</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2892</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4208.4</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>12115</v>
+        <v>19215.4</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -923,10 +923,10 @@
         <v>21588.35</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>15533.91</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>19035.4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>115952.37</v>
+        <v>150521.68</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -28,10 +28,10 @@
     <t>Bibi Cell Vieiralves</t>
   </si>
   <si>
-    <t>Bibi Cell Ponta Negra</t>
+    <t>Bibi Cell Manauara</t>
   </si>
   <si>
-    <t>Bibi Cell Manauara</t>
+    <t>Bibi Cell Ponta Negra</t>
   </si>
   <si>
     <t>total</t>
@@ -706,28 +706,28 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1800.01</v>
+        <v>3340</v>
       </c>
       <c r="C4">
-        <v>4670</v>
+        <v>1519</v>
       </c>
       <c r="D4">
-        <v>1748.51</v>
+        <v>2934</v>
       </c>
       <c r="E4">
-        <v>5592</v>
+        <v>1819</v>
       </c>
       <c r="F4">
-        <v>3002</v>
+        <v>2503</v>
       </c>
       <c r="G4">
-        <v>823</v>
+        <v>2892</v>
       </c>
       <c r="H4">
-        <v>3138.5</v>
+        <v>4208.4</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3329.9</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>20774.02</v>
+        <v>22545.3</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -807,28 +807,28 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3340</v>
+        <v>1800.01</v>
       </c>
       <c r="C5">
-        <v>1519</v>
+        <v>4670</v>
       </c>
       <c r="D5">
-        <v>2934</v>
+        <v>1748.51</v>
       </c>
       <c r="E5">
-        <v>1819</v>
+        <v>5592</v>
       </c>
       <c r="F5">
-        <v>2503</v>
+        <v>3002</v>
       </c>
       <c r="G5">
-        <v>2892</v>
+        <v>823</v>
       </c>
       <c r="H5">
-        <v>4208.4</v>
+        <v>3138.5</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1613</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>19215.4</v>
+        <v>22387.02</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -929,7 +929,7 @@
         <v>19035.4</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4942.9</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>150521.68</v>
+        <v>155464.58</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>13357.35</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>82434.75999999999</v>
+        <v>95792.11</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>3675.5</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>28097.5</v>
+        <v>31773</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -730,7 +730,7 @@
         <v>3329.9</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4038</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>22545.3</v>
+        <v>26583.3</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -831,7 +831,7 @@
         <v>1613</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2786.02</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>22387.02</v>
+        <v>25173.04</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -932,7 +932,7 @@
         <v>4942.9</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>23856.87</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>155464.58</v>
+        <v>179321.45</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -28,10 +28,10 @@
     <t>Bibi Cell Vieiralves</t>
   </si>
   <si>
-    <t>Bibi Cell Manauara</t>
+    <t>Bibi Cell Ponta Negra</t>
   </si>
   <si>
-    <t>Bibi Cell Ponta Negra</t>
+    <t>Bibi Cell Manauara</t>
   </si>
   <si>
     <t>total</t>
@@ -531,7 +531,7 @@
         <v>13357.35</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13073.65</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>95792.11</v>
+        <v>108865.76</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -617,7 +617,7 @@
         <v>3626</v>
       </c>
       <c r="F3">
-        <v>4238</v>
+        <v>4293</v>
       </c>
       <c r="G3">
         <v>4951</v>
@@ -632,7 +632,7 @@
         <v>3675.5</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9197.950000000001</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>31773</v>
+        <v>41025.95</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -706,34 +706,34 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3340</v>
+        <v>1800.01</v>
       </c>
       <c r="C4">
-        <v>1519</v>
+        <v>4670</v>
       </c>
       <c r="D4">
-        <v>2934</v>
+        <v>1748.51</v>
       </c>
       <c r="E4">
-        <v>1819</v>
+        <v>5592</v>
       </c>
       <c r="F4">
-        <v>2503</v>
+        <v>3002</v>
       </c>
       <c r="G4">
-        <v>2892</v>
+        <v>823</v>
       </c>
       <c r="H4">
-        <v>4208.4</v>
+        <v>3138.5</v>
       </c>
       <c r="I4">
-        <v>3329.9</v>
+        <v>1613</v>
       </c>
       <c r="J4">
-        <v>4038</v>
+        <v>2786.02</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>6097.5</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>26583.3</v>
+        <v>31270.54</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -807,34 +807,34 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1800.01</v>
+        <v>3340</v>
       </c>
       <c r="C5">
-        <v>4670</v>
+        <v>1519</v>
       </c>
       <c r="D5">
-        <v>1748.51</v>
+        <v>2934</v>
       </c>
       <c r="E5">
-        <v>5592</v>
+        <v>1819</v>
       </c>
       <c r="F5">
-        <v>3002</v>
+        <v>2503</v>
       </c>
       <c r="G5">
-        <v>823</v>
+        <v>2892</v>
       </c>
       <c r="H5">
-        <v>3138.5</v>
+        <v>4208.4</v>
       </c>
       <c r="I5">
-        <v>1613</v>
+        <v>3329.9</v>
       </c>
       <c r="J5">
-        <v>2786.02</v>
+        <v>4038</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2830.9</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>25173.04</v>
+        <v>29414.2</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -920,7 +920,7 @@
         <v>36189.46</v>
       </c>
       <c r="F6">
-        <v>21588.35</v>
+        <v>21643.35</v>
       </c>
       <c r="G6">
         <v>15533.91</v>
@@ -935,7 +935,7 @@
         <v>23856.87</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>31200</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>179321.45</v>
+        <v>210576.45</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -534,7 +534,7 @@
         <v>13073.65</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>16650.55</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>108865.76</v>
+        <v>125516.31</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -635,7 +635,7 @@
         <v>9197.950000000001</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>9429.450000000001</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>41025.95</v>
+        <v>50455.4</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -736,7 +736,7 @@
         <v>6097.5</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>3514.36</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>31270.54</v>
+        <v>34784.9</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -837,7 +837,7 @@
         <v>2830.9</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>3525</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>29414.2</v>
+        <v>32939.2</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -938,7 +938,7 @@
         <v>31200</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>33119.36</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>210576.45</v>
+        <v>243695.81</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -537,7 +537,7 @@
         <v>16650.55</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>22862.26</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>125516.31</v>
+        <v>148378.57</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -638,7 +638,7 @@
         <v>9429.450000000001</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8124.5</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>50455.4</v>
+        <v>58579.9</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -739,7 +739,7 @@
         <v>3514.36</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5434.87</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>34784.9</v>
+        <v>40219.77</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -840,7 +840,7 @@
         <v>3525</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2422</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>32939.2</v>
+        <v>35361.2</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -941,7 +941,7 @@
         <v>33119.36</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>38843.63</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>243695.81</v>
+        <v>282539.44</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -540,7 +540,7 @@
         <v>22862.26</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>15634.39</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>148378.57</v>
+        <v>164012.96</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -635,13 +635,13 @@
         <v>9197.950000000001</v>
       </c>
       <c r="L3">
-        <v>9429.450000000001</v>
+        <v>9474.450000000001</v>
       </c>
       <c r="M3">
         <v>8124.5</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2829.9</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>58579.9</v>
+        <v>61454.8</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -742,7 +742,7 @@
         <v>5434.87</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1478</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>40219.77</v>
+        <v>41697.77</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -843,7 +843,7 @@
         <v>2422</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2128</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>35361.2</v>
+        <v>37489.2</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -938,13 +938,13 @@
         <v>31200</v>
       </c>
       <c r="L6">
-        <v>33119.36</v>
+        <v>33164.36</v>
       </c>
       <c r="M6">
         <v>38843.63</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>22070.29</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>282539.44</v>
+        <v>304654.73</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -543,7 +543,7 @@
         <v>15634.39</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>3636.9</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>164012.96</v>
+        <v>167649.86</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -644,7 +644,7 @@
         <v>2829.9</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>14071</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>61454.8</v>
+        <v>75525.8</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -745,10 +745,10 @@
         <v>1478</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>4390.5</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1481.42</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>41697.77</v>
+        <v>47569.69</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -843,13 +843,13 @@
         <v>2422</v>
       </c>
       <c r="N5">
-        <v>2128</v>
+        <v>2493</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>5411</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>3140</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>37489.2</v>
+        <v>46405.2</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -944,13 +944,13 @@
         <v>38843.63</v>
       </c>
       <c r="N6">
-        <v>22070.29</v>
+        <v>22435.29</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>27509.4</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>4621.42</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>304654.73</v>
+        <v>337150.55</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>18261.4</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>167649.86</v>
+        <v>185911.26</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>4882</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>75525.8</v>
+        <v>80407.8</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -751,7 +751,7 @@
         <v>1481.42</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2772</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>47569.69</v>
+        <v>50341.69</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -852,7 +852,7 @@
         <v>3140</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2599</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>46405.2</v>
+        <v>49004.2</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -953,7 +953,7 @@
         <v>4621.42</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>28514.4</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>337150.55</v>
+        <v>365664.95</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -552,7 +552,7 @@
         <v>18261.4</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>9109.790000000001</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>185911.26</v>
+        <v>195021.05</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -653,7 +653,7 @@
         <v>4882</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>4462</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>80407.8</v>
+        <v>84869.8</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -754,7 +754,7 @@
         <v>2772</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1781</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>50341.69</v>
+        <v>52122.69</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -855,7 +855,7 @@
         <v>2599</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>2746</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>49004.2</v>
+        <v>51750.2</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -956,7 +956,7 @@
         <v>28514.4</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>18098.79</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>365664.95</v>
+        <v>383763.74</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -28,10 +28,10 @@
     <t>Bibi Cell Vieiralves</t>
   </si>
   <si>
-    <t>Bibi Cell Ponta Negra</t>
+    <t>Bibi Cell Manauara</t>
   </si>
   <si>
-    <t>Bibi Cell Manauara</t>
+    <t>Bibi Cell Ponta Negra</t>
   </si>
   <si>
     <t>total</t>
@@ -555,13 +555,13 @@
         <v>9109.790000000001</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>17684.08</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>5390.27</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>195021.05</v>
+        <v>218130.4</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -656,10 +656,10 @@
         <v>4462</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>5039.5</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>6809.9</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>84869.8</v>
+        <v>96719.2</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -706,61 +706,61 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1800.01</v>
+        <v>3340</v>
       </c>
       <c r="C4">
-        <v>4670</v>
+        <v>1519</v>
       </c>
       <c r="D4">
-        <v>1748.51</v>
+        <v>2934</v>
       </c>
       <c r="E4">
-        <v>5592</v>
+        <v>1819</v>
       </c>
       <c r="F4">
-        <v>3002</v>
+        <v>2503</v>
       </c>
       <c r="G4">
-        <v>823</v>
+        <v>2892</v>
       </c>
       <c r="H4">
-        <v>3138.5</v>
+        <v>4208.4</v>
       </c>
       <c r="I4">
-        <v>1613</v>
+        <v>3329.9</v>
       </c>
       <c r="J4">
-        <v>2786.02</v>
+        <v>4038</v>
       </c>
       <c r="K4">
-        <v>6097.5</v>
+        <v>2830.9</v>
       </c>
       <c r="L4">
-        <v>3514.36</v>
+        <v>3525</v>
       </c>
       <c r="M4">
-        <v>5434.87</v>
+        <v>2422</v>
       </c>
       <c r="N4">
-        <v>1478</v>
+        <v>2493</v>
       </c>
       <c r="O4">
-        <v>4390.5</v>
+        <v>5411</v>
       </c>
       <c r="P4">
-        <v>1481.42</v>
+        <v>3140</v>
       </c>
       <c r="Q4">
-        <v>2772</v>
+        <v>2599</v>
       </c>
       <c r="R4">
-        <v>1781</v>
+        <v>2746</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>3199.9</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>3780</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>52122.69</v>
+        <v>58730.1</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -807,61 +807,61 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3340</v>
+        <v>1800.01</v>
       </c>
       <c r="C5">
-        <v>1519</v>
+        <v>4670</v>
       </c>
       <c r="D5">
-        <v>2934</v>
+        <v>1748.51</v>
       </c>
       <c r="E5">
-        <v>1819</v>
+        <v>5592</v>
       </c>
       <c r="F5">
-        <v>2503</v>
+        <v>3002</v>
       </c>
       <c r="G5">
-        <v>2892</v>
+        <v>823</v>
       </c>
       <c r="H5">
-        <v>4208.4</v>
+        <v>3138.5</v>
       </c>
       <c r="I5">
-        <v>3329.9</v>
+        <v>1613</v>
       </c>
       <c r="J5">
-        <v>4038</v>
+        <v>2786.02</v>
       </c>
       <c r="K5">
-        <v>2830.9</v>
+        <v>6097.5</v>
       </c>
       <c r="L5">
-        <v>3525</v>
+        <v>3514.36</v>
       </c>
       <c r="M5">
-        <v>2422</v>
+        <v>5434.87</v>
       </c>
       <c r="N5">
-        <v>2493</v>
+        <v>1478</v>
       </c>
       <c r="O5">
-        <v>5411</v>
+        <v>4390.5</v>
       </c>
       <c r="P5">
-        <v>3140</v>
+        <v>1481.42</v>
       </c>
       <c r="Q5">
-        <v>2599</v>
+        <v>2772</v>
       </c>
       <c r="R5">
-        <v>2746</v>
+        <v>1781</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1142.5</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>51750.2</v>
+        <v>54379.19</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -959,13 +959,13 @@
         <v>18098.79</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>27037.48</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>17122.67</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>383763.74</v>
+        <v>427958.89</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -561,10 +561,10 @@
         <v>5390.27</v>
       </c>
       <c r="U2">
-        <v>35</v>
+        <v>8130.35</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1208</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>218130.4</v>
+        <v>227433.75</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -662,10 +662,10 @@
         <v>6809.9</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>4136</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>5429</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>96719.2</v>
+        <v>106284.2</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -763,13 +763,13 @@
         <v>3780</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>3561.5</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>4526</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>2936</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>58730.1</v>
+        <v>69753.60000000001</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -864,13 +864,13 @@
         <v>1142.5</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1795</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>2338.01</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1118.5</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>54379.19</v>
+        <v>59630.7</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -965,13 +965,13 @@
         <v>17122.67</v>
       </c>
       <c r="U6">
-        <v>35</v>
+        <v>17622.85</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>13501.01</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>4054.5</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>427958.89</v>
+        <v>463102.25</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>16186.47</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>227433.75</v>
+        <v>243620.22</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>3520.99</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>106284.2</v>
+        <v>109805.19</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -772,7 +772,7 @@
         <v>2936</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>2117</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>69753.60000000001</v>
+        <v>71870.60000000001</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -873,7 +873,7 @@
         <v>1118.5</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>3358.8</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>59630.7</v>
+        <v>62989.5</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -974,7 +974,7 @@
         <v>4054.5</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>25183.26</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>463102.25</v>
+        <v>488285.51</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -573,7 +573,7 @@
         <v>16186.47</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>10644.92</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>243620.22</v>
+        <v>254265.14</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -674,7 +674,7 @@
         <v>3520.99</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>5142.9</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>109805.19</v>
+        <v>114948.09</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -775,7 +775,7 @@
         <v>2117</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>4144</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>71870.60000000001</v>
+        <v>76014.60000000001</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -876,7 +876,7 @@
         <v>3358.8</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>2671</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>62989.5</v>
+        <v>65660.5</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -977,7 +977,7 @@
         <v>25183.26</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>22602.82</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>488285.51</v>
+        <v>510888.33</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -576,7 +576,7 @@
         <v>10644.92</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>10507.6</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>254265.14</v>
+        <v>264772.74</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -677,7 +677,7 @@
         <v>5142.9</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>5582</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>114948.09</v>
+        <v>120530.09</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -778,7 +778,7 @@
         <v>4144</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1379.75</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>76014.60000000001</v>
+        <v>77394.35000000001</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -879,7 +879,7 @@
         <v>2671</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>2711.11</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>65660.5</v>
+        <v>68371.61</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -980,7 +980,7 @@
         <v>22602.82</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>20180.46</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>510888.33</v>
+        <v>531068.79</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -579,10 +579,10 @@
         <v>10507.6</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>7424.21</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1129.2</v>
       </c>
       <c r="AC2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>264772.74</v>
+        <v>273326.15</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -680,10 +680,10 @@
         <v>5582</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>21228.5</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>120530.09</v>
+        <v>141813.59</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -781,7 +781,7 @@
         <v>1379.75</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>2569</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>77394.35000000001</v>
+        <v>79963.35000000001</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -882,10 +882,10 @@
         <v>2711.11</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>6123.4</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>68371.61</v>
+        <v>74625.00999999999</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -983,10 +983,10 @@
         <v>20180.46</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>37345.11</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1314.2</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>531068.79</v>
+        <v>569728.1</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -28,10 +28,10 @@
     <t>Bibi Cell Vieiralves</t>
   </si>
   <si>
-    <t>Bibi Cell Manauara</t>
+    <t>Bibi Cell Ponta Negra</t>
   </si>
   <si>
-    <t>Bibi Cell Ponta Negra</t>
+    <t>Bibi Cell Manauara</t>
   </si>
   <si>
     <t>total</t>
@@ -582,10 +582,10 @@
         <v>7424.21</v>
       </c>
       <c r="AB2">
-        <v>1129.2</v>
+        <v>10793.22</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>1817</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>273326.15</v>
+        <v>284807.17</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -683,10 +683,10 @@
         <v>21228.5</v>
       </c>
       <c r="AB3">
-        <v>55</v>
+        <v>3858.4</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>4344</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>141813.59</v>
+        <v>149960.99</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -706,91 +706,91 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3340</v>
+        <v>1800.01</v>
       </c>
       <c r="C4">
-        <v>1519</v>
+        <v>4670</v>
       </c>
       <c r="D4">
-        <v>2934</v>
+        <v>1748.51</v>
       </c>
       <c r="E4">
-        <v>1819</v>
+        <v>5592</v>
       </c>
       <c r="F4">
-        <v>2503</v>
+        <v>3002</v>
       </c>
       <c r="G4">
-        <v>2892</v>
+        <v>823</v>
       </c>
       <c r="H4">
-        <v>4208.4</v>
+        <v>3138.5</v>
       </c>
       <c r="I4">
-        <v>3329.9</v>
+        <v>1613</v>
       </c>
       <c r="J4">
-        <v>4038</v>
+        <v>2786.02</v>
       </c>
       <c r="K4">
-        <v>2830.9</v>
+        <v>6097.5</v>
       </c>
       <c r="L4">
-        <v>3525</v>
+        <v>3514.36</v>
       </c>
       <c r="M4">
-        <v>2422</v>
+        <v>5434.87</v>
       </c>
       <c r="N4">
-        <v>2493</v>
+        <v>1478</v>
       </c>
       <c r="O4">
-        <v>5411</v>
+        <v>4390.5</v>
       </c>
       <c r="P4">
-        <v>3140</v>
+        <v>1481.42</v>
       </c>
       <c r="Q4">
-        <v>2599</v>
+        <v>2772</v>
       </c>
       <c r="R4">
-        <v>2746</v>
+        <v>1781</v>
       </c>
       <c r="S4">
-        <v>3199.9</v>
+        <v>1114</v>
       </c>
       <c r="T4">
-        <v>3780</v>
+        <v>1142.5</v>
       </c>
       <c r="U4">
-        <v>3561.5</v>
+        <v>1795</v>
       </c>
       <c r="V4">
-        <v>4526</v>
+        <v>2338.01</v>
       </c>
       <c r="W4">
-        <v>2936</v>
+        <v>1118.5</v>
       </c>
       <c r="X4">
-        <v>2117</v>
+        <v>3358.8</v>
       </c>
       <c r="Y4">
-        <v>4144</v>
+        <v>2671</v>
       </c>
       <c r="Z4">
-        <v>1379.75</v>
+        <v>2711.11</v>
       </c>
       <c r="AA4">
-        <v>2569</v>
+        <v>6123.4</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>7033.9</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>2211</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>4540.8</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>79963.35000000001</v>
+        <v>88280.71000000001</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -807,91 +807,91 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1800.01</v>
+        <v>3340</v>
       </c>
       <c r="C5">
-        <v>4670</v>
+        <v>1519</v>
       </c>
       <c r="D5">
-        <v>1748.51</v>
+        <v>2934</v>
       </c>
       <c r="E5">
-        <v>5592</v>
+        <v>1819</v>
       </c>
       <c r="F5">
-        <v>3002</v>
+        <v>2503</v>
       </c>
       <c r="G5">
-        <v>823</v>
+        <v>2892</v>
       </c>
       <c r="H5">
-        <v>3138.5</v>
+        <v>4208.4</v>
       </c>
       <c r="I5">
-        <v>1613</v>
+        <v>3329.9</v>
       </c>
       <c r="J5">
-        <v>2786.02</v>
+        <v>4038</v>
       </c>
       <c r="K5">
-        <v>6097.5</v>
+        <v>2830.9</v>
       </c>
       <c r="L5">
-        <v>3514.36</v>
+        <v>3525</v>
       </c>
       <c r="M5">
-        <v>5434.87</v>
+        <v>2422</v>
       </c>
       <c r="N5">
-        <v>1478</v>
+        <v>2493</v>
       </c>
       <c r="O5">
-        <v>4390.5</v>
+        <v>5411</v>
       </c>
       <c r="P5">
-        <v>1481.42</v>
+        <v>3140</v>
       </c>
       <c r="Q5">
-        <v>2772</v>
+        <v>2599</v>
       </c>
       <c r="R5">
-        <v>1781</v>
+        <v>2746</v>
       </c>
       <c r="S5">
-        <v>1114</v>
+        <v>3199.9</v>
       </c>
       <c r="T5">
-        <v>1142.5</v>
+        <v>3780</v>
       </c>
       <c r="U5">
-        <v>1795</v>
+        <v>3561.5</v>
       </c>
       <c r="V5">
-        <v>2338.01</v>
+        <v>4526</v>
       </c>
       <c r="W5">
-        <v>1118.5</v>
+        <v>2936</v>
       </c>
       <c r="X5">
-        <v>3358.8</v>
+        <v>2117</v>
       </c>
       <c r="Y5">
-        <v>2671</v>
+        <v>4144</v>
       </c>
       <c r="Z5">
-        <v>2711.11</v>
+        <v>1379.75</v>
       </c>
       <c r="AA5">
-        <v>6123.4</v>
+        <v>2569</v>
       </c>
       <c r="AB5">
-        <v>130</v>
+        <v>2834</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>2531.9</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1589</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>74625.00999999999</v>
+        <v>86918.25</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -986,13 +986,13 @@
         <v>37345.11</v>
       </c>
       <c r="AB6">
-        <v>1314.2</v>
+        <v>24519.52</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>10903.9</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>6129.8</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>569728.1</v>
+        <v>609967.12</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -591,13 +591,13 @@
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>16623.32</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>284807.17</v>
+        <v>301430.49</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -692,13 +692,13 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>4728.9</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>149960.99</v>
+        <v>154689.89</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -793,13 +793,13 @@
         <v>4540.8</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1399</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>88280.71000000001</v>
+        <v>89679.71000000001</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -894,13 +894,13 @@
         <v>1589</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1577.9</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>86918.25</v>
+        <v>88496.14999999999</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -995,13 +995,13 @@
         <v>6129.8</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>24329.12</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>609967.12</v>
+        <v>634296.24</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -25,10 +25,10 @@
     <t>Bibi Cell Mundi</t>
   </si>
   <si>
-    <t>Bibi Cell Vieiralves</t>
+    <t>Bibi Cell Ponta Negra</t>
   </si>
   <si>
-    <t>Bibi Cell Ponta Negra</t>
+    <t>Bibi Cell Vieiralves</t>
   </si>
   <si>
     <t>Bibi Cell Manauara</t>
@@ -504,100 +504,100 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>6805.15</v>
       </c>
       <c r="C2">
-        <v>17144.8</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>17353.24</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>25152.46</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>11845.35</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>6867.91</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>4071</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>13357.35</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>13073.65</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>16650.55</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>22862.26</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>15634.39</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3636.9</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>18261.4</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>9109.790000000001</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>17684.08</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>5390.27</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>8130.35</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1208</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>16186.47</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>10644.92</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>10507.6</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>7424.21</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>10793.22</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1817</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>16623.32</v>
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>301430.49</v>
+        <v>6805.15</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -605,100 +605,100 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4535.01</v>
       </c>
       <c r="C3">
-        <v>4464</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3201</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3626</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4293</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4951</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>7617.5</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>3675.5</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>9197.950000000001</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>9474.450000000001</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>8124.5</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2829.9</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14071</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4882</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>4462</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>5039.5</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>6809.9</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>4136</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>5429</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>3520.99</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>5142.9</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>5582</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>21228.5</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>3858.4</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>4344</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>4728.9</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>154689.89</v>
+        <v>4535.01</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -706,100 +706,100 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1800.01</v>
+        <v>3638</v>
       </c>
       <c r="C4">
-        <v>4670</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1748.51</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>5592</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3002</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>823</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3138.5</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1613</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2786.02</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>6097.5</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>3514.36</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>5434.87</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1478</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>4390.5</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1481.42</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2772</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1781</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1114</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1142.5</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1795</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>2338.01</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1118.5</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>3358.8</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>2671</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>2711.11</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>6123.4</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>7033.9</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>2211</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>4540.8</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>1399</v>
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>89679.71000000001</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -807,100 +807,100 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3340</v>
+        <v>2251</v>
       </c>
       <c r="C5">
-        <v>1519</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2934</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1819</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2503</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>2892</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>4208.4</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>3329.9</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4038</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2830.9</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>3525</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>2422</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2493</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>5411</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>3140</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2599</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2746</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>3199.9</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>3780</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>3561.5</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>4526</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>2936</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>2117</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>4144</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1379.75</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>2569</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>2834</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>2531.9</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>1589</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>1577.9</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>88496.14999999999</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -908,100 +908,100 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>5140.01</v>
+        <v>17229.16</v>
       </c>
       <c r="C6">
-        <v>27797.8</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>25236.75</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>36189.46</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>21643.35</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>15533.91</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>19035.4</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>4942.9</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>23856.87</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>31200</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>33164.36</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>38843.63</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>22435.29</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>27509.4</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>4621.42</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>28514.4</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>18098.79</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>27037.48</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>17122.67</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>17622.85</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>13501.01</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>4054.5</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>25183.26</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>22602.82</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>20180.46</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>37345.11</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>24519.52</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>10903.9</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>6129.8</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>24329.12</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>634296.24</v>
+        <v>17229.16</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -25,10 +25,10 @@
     <t>Bibi Cell Mundi</t>
   </si>
   <si>
-    <t>Bibi Cell Ponta Negra</t>
+    <t>Bibi Cell Vieiralves</t>
   </si>
   <si>
-    <t>Bibi Cell Vieiralves</t>
+    <t>Bibi Cell Ponta Negra</t>
   </si>
   <si>
     <t>Bibi Cell Manauara</t>
@@ -507,7 +507,7 @@
         <v>6805.15</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>11735.4</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>6805.15</v>
+        <v>18540.55</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -605,10 +605,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4535.01</v>
+        <v>3638</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3280.25</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>4535.01</v>
+        <v>6918.25</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -706,10 +706,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3638</v>
+        <v>4535.01</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2016</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>3638</v>
+        <v>6551.01</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -807,10 +807,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2251</v>
+        <v>2756</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>3433</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>2251</v>
+        <v>6189</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -908,10 +908,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>17229.16</v>
+        <v>17734.16</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>20464.65</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>17229.16</v>
+        <v>38198.81</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -510,7 +510,7 @@
         <v>11735.4</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>12213.72</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>18540.55</v>
+        <v>30754.27</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -611,7 +611,7 @@
         <v>3280.25</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>5466.8</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>6918.25</v>
+        <v>12385.05</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -709,10 +709,10 @@
         <v>4535.01</v>
       </c>
       <c r="C4">
-        <v>2016</v>
+        <v>2416</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2403.81</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>6551.01</v>
+        <v>9354.82</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -810,10 +810,10 @@
         <v>2756</v>
       </c>
       <c r="C5">
-        <v>3433</v>
+        <v>3763</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2753</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>6189</v>
+        <v>9272</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -911,10 +911,10 @@
         <v>17734.16</v>
       </c>
       <c r="C6">
-        <v>20464.65</v>
+        <v>21194.65</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>22837.33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>38198.81</v>
+        <v>61766.14</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -25,13 +25,13 @@
     <t>Bibi Cell Mundi</t>
   </si>
   <si>
-    <t>Bibi Cell Vieiralves</t>
+    <t>Bibi Cell Manauara</t>
   </si>
   <si>
     <t>Bibi Cell Ponta Negra</t>
   </si>
   <si>
-    <t>Bibi Cell Manauara</t>
+    <t>Bibi Cell Vieiralves</t>
   </si>
   <si>
     <t>total</t>
@@ -513,10 +513,10 @@
         <v>12213.72</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>14184.24</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1995.8</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>30754.27</v>
+        <v>46934.31</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -605,22 +605,22 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3638</v>
+        <v>2756</v>
       </c>
       <c r="C3">
-        <v>3280.25</v>
+        <v>3763</v>
       </c>
       <c r="D3">
-        <v>5466.8</v>
+        <v>2753</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2701</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>6020</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>3870.9</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>12385.05</v>
+        <v>21863.9</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -715,13 +715,13 @@
         <v>2403.81</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5469</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>3040.95</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1795.75</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>9354.82</v>
+        <v>19660.52</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -807,19 +807,19 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2756</v>
+        <v>3638</v>
       </c>
       <c r="C5">
-        <v>3763</v>
+        <v>3280.25</v>
       </c>
       <c r="D5">
-        <v>2753</v>
+        <v>5521.8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2850</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>4180</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>9272</v>
+        <v>19470.05</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -914,16 +914,16 @@
         <v>21194.65</v>
       </c>
       <c r="D6">
-        <v>22837.33</v>
+        <v>22892.33</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>25204.24</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>15236.75</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>5666.65</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>61766.14</v>
+        <v>107928.78</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -28,10 +28,10 @@
     <t>Bibi Cell Manauara</t>
   </si>
   <si>
-    <t>Bibi Cell Ponta Negra</t>
+    <t>Bibi Cell Vieiralves</t>
   </si>
   <si>
-    <t>Bibi Cell Vieiralves</t>
+    <t>Bibi Cell Ponta Negra</t>
   </si>
   <si>
     <t>total</t>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10126.16</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>46934.31</v>
+        <v>57060.47</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -623,7 +623,7 @@
         <v>3870.9</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3677</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>21863.9</v>
+        <v>25540.9</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -706,25 +706,25 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>4535.01</v>
+        <v>3638</v>
       </c>
       <c r="C4">
-        <v>2416</v>
+        <v>3280.25</v>
       </c>
       <c r="D4">
-        <v>2403.81</v>
+        <v>5521.8</v>
       </c>
       <c r="E4">
-        <v>5469</v>
+        <v>2850</v>
       </c>
       <c r="F4">
-        <v>3040.95</v>
+        <v>4180</v>
       </c>
       <c r="G4">
-        <v>1795.75</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4097.5</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>19660.52</v>
+        <v>23567.55</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -807,25 +807,25 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3638</v>
+        <v>4535.01</v>
       </c>
       <c r="C5">
-        <v>3280.25</v>
+        <v>2416</v>
       </c>
       <c r="D5">
-        <v>5521.8</v>
+        <v>2403.81</v>
       </c>
       <c r="E5">
-        <v>2850</v>
+        <v>5469</v>
       </c>
       <c r="F5">
-        <v>4180</v>
+        <v>3040.95</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1795.75</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2017.01</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>19470.05</v>
+        <v>21677.53</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -926,7 +926,7 @@
         <v>5666.65</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>19917.67</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>107928.78</v>
+        <v>127846.45</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -25,10 +25,10 @@
     <t>Bibi Cell Mundi</t>
   </si>
   <si>
-    <t>Bibi Cell Manauara</t>
+    <t>Bibi Cell Vieiralves</t>
   </si>
   <si>
-    <t>Bibi Cell Vieiralves</t>
+    <t>Bibi Cell Manauara</t>
   </si>
   <si>
     <t>Bibi Cell Ponta Negra</t>
@@ -522,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>10126.16</v>
+        <v>11736.16</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>7827.31</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>57060.47</v>
+        <v>66497.78</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -605,28 +605,28 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2756</v>
+        <v>3638</v>
       </c>
       <c r="C3">
-        <v>3763</v>
+        <v>3280.25</v>
       </c>
       <c r="D3">
-        <v>2753</v>
+        <v>5521.8</v>
       </c>
       <c r="E3">
-        <v>2701</v>
+        <v>2850</v>
       </c>
       <c r="F3">
-        <v>6020</v>
+        <v>4180</v>
       </c>
       <c r="G3">
-        <v>3870.9</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3677</v>
+        <v>4097.5</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4772</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>25540.9</v>
+        <v>28339.55</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -706,28 +706,28 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3638</v>
+        <v>2756</v>
       </c>
       <c r="C4">
-        <v>3280.25</v>
+        <v>3763</v>
       </c>
       <c r="D4">
-        <v>5521.8</v>
+        <v>2753</v>
       </c>
       <c r="E4">
-        <v>2850</v>
+        <v>2701</v>
       </c>
       <c r="F4">
-        <v>4180</v>
+        <v>6020</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3870.9</v>
       </c>
       <c r="H4">
-        <v>4097.5</v>
+        <v>3677</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1503</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>23567.55</v>
+        <v>27043.9</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -828,7 +828,7 @@
         <v>2017.01</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3863.5</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>21677.53</v>
+        <v>25541.03</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -926,10 +926,10 @@
         <v>5666.65</v>
       </c>
       <c r="H6">
-        <v>19917.67</v>
+        <v>21527.67</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>17965.81</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>127846.45</v>
+        <v>147422.26</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -528,7 +528,7 @@
         <v>7827.31</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9093.950000000001</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>66497.78</v>
+        <v>75591.73</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -629,7 +629,7 @@
         <v>4772</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5820.5</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>28339.55</v>
+        <v>34160.05</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -730,7 +730,7 @@
         <v>1503</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1575.5</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>27043.9</v>
+        <v>28619.4</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -831,7 +831,7 @@
         <v>3863.5</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1824.02</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>25541.03</v>
+        <v>27365.05</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -932,7 +932,7 @@
         <v>17965.81</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>18313.97</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>147422.26</v>
+        <v>165736.23</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -531,7 +531,7 @@
         <v>9093.950000000001</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>12113</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>75591.73</v>
+        <v>87704.73</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -632,7 +632,7 @@
         <v>5820.5</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>3766</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>34160.05</v>
+        <v>37926.05</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -733,7 +733,7 @@
         <v>1575.5</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3135</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>28619.4</v>
+        <v>31754.4</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -834,7 +834,7 @@
         <v>1824.02</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2252</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>27365.05</v>
+        <v>29617.05</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -935,7 +935,7 @@
         <v>18313.97</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>21266</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>165736.23</v>
+        <v>187002.23</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -534,10 +534,10 @@
         <v>12113</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>16641.22</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1882</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>87704.73</v>
+        <v>106227.95</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -635,10 +635,10 @@
         <v>3766</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2865</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>3923</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>37926.05</v>
+        <v>44714.05</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -736,13 +736,13 @@
         <v>3135</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5175</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2532</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1811</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>31754.4</v>
+        <v>41272.4</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -837,13 +837,13 @@
         <v>2252</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>717</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1708.9</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1178.9</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>29617.05</v>
+        <v>33221.85</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -938,13 +938,13 @@
         <v>21266</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>25398.22</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10045.9</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2989.9</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>187002.23</v>
+        <v>225436.25</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>14226.84</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>106227.95</v>
+        <v>120454.79</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2253.06</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>44714.05</v>
+        <v>46967.11</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -745,7 +745,7 @@
         <v>1811</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2877.5</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>41272.4</v>
+        <v>44149.9</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -846,7 +846,7 @@
         <v>1178.9</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1921.01</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>33221.85</v>
+        <v>35142.86</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -947,7 +947,7 @@
         <v>2989.9</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>21278.41</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>225436.25</v>
+        <v>246714.66</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -546,7 +546,7 @@
         <v>14226.84</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>13557.03</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>120454.79</v>
+        <v>134011.82</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -647,7 +647,7 @@
         <v>2253.06</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>46967.11</v>
+        <v>56967.11</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -745,10 +745,10 @@
         <v>1811</v>
       </c>
       <c r="O4">
-        <v>2877.5</v>
+        <v>2912.5</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>44149.9</v>
+        <v>46206.9</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -849,7 +849,7 @@
         <v>1921.01</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6521.01</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>35142.86</v>
+        <v>41663.87</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -947,10 +947,10 @@
         <v>2989.9</v>
       </c>
       <c r="O6">
-        <v>21278.41</v>
+        <v>21313.41</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>32100.04</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>246714.66</v>
+        <v>278849.7</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -549,7 +549,7 @@
         <v>13557.03</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>9831.02</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>134011.82</v>
+        <v>143842.84</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -650,7 +650,7 @@
         <v>10000</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>14954.9</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>56967.11</v>
+        <v>71922.00999999999</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -751,7 +751,7 @@
         <v>2022</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>3175</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>46206.9</v>
+        <v>49381.9</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -852,7 +852,7 @@
         <v>6521.01</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2904</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>41663.87</v>
+        <v>44567.87</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -953,7 +953,7 @@
         <v>32100.04</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>30864.92</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>278849.7</v>
+        <v>309714.62</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -552,7 +552,7 @@
         <v>9831.02</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>8100.92</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>143842.84</v>
+        <v>151943.76</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -653,7 +653,7 @@
         <v>14954.9</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>3454</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>71922.00999999999</v>
+        <v>75376.00999999999</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -754,7 +754,7 @@
         <v>3175</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>2358</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>49381.9</v>
+        <v>51739.9</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -855,7 +855,7 @@
         <v>2904</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>3704.15</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>44567.87</v>
+        <v>48272.02</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -956,7 +956,7 @@
         <v>30864.92</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>17617.07</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>309714.62</v>
+        <v>327331.69</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -555,10 +555,10 @@
         <v>8100.92</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>13662.3</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>3320.9</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>151943.76</v>
+        <v>168926.96</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -653,13 +653,13 @@
         <v>14954.9</v>
       </c>
       <c r="R3">
-        <v>3454</v>
+        <v>6480</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2690</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>3365</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>75376.00999999999</v>
+        <v>84457.00999999999</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -757,13 +757,13 @@
         <v>2358</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2521</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>5190</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>2247</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>51739.9</v>
+        <v>61697.9</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -858,13 +858,13 @@
         <v>3704.15</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2947</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>2106.75</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1486</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>48272.02</v>
+        <v>54811.77</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -956,16 +956,16 @@
         <v>30864.92</v>
       </c>
       <c r="R6">
-        <v>17617.07</v>
+        <v>20643.07</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>21820.3</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>13982.65</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>3733</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>327331.69</v>
+        <v>369893.64</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>15746.6</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>168926.96</v>
+        <v>184673.56</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -659,16 +659,16 @@
         <v>2690</v>
       </c>
       <c r="T3">
-        <v>3365</v>
+        <v>4390</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>5081</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>84457.00999999999</v>
+        <v>90623.00999999999</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -766,7 +766,7 @@
         <v>2247</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>2713</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>61697.9</v>
+        <v>64410.9</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -867,7 +867,7 @@
         <v>1486</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>2702.02</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>54811.77</v>
+        <v>57513.79</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -962,16 +962,16 @@
         <v>21820.3</v>
       </c>
       <c r="T6">
-        <v>13982.65</v>
+        <v>15007.65</v>
       </c>
       <c r="U6">
         <v>3733</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>26242.62</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>369893.64</v>
+        <v>397221.26</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -567,7 +567,7 @@
         <v>15746.6</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>6826.2</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>184673.56</v>
+        <v>191499.76</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -668,7 +668,7 @@
         <v>5081</v>
       </c>
       <c r="W3">
-        <v>60</v>
+        <v>5892</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>90623.00999999999</v>
+        <v>96455.00999999999</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -769,7 +769,7 @@
         <v>2713</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1815</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>64410.9</v>
+        <v>66225.89999999999</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -870,7 +870,7 @@
         <v>2702.02</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1812</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>57513.79</v>
+        <v>59325.79</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -971,7 +971,7 @@
         <v>26242.62</v>
       </c>
       <c r="W6">
-        <v>60</v>
+        <v>16345.2</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>397221.26</v>
+        <v>413506.46</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -570,7 +570,7 @@
         <v>6826.2</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>6645.32</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>191499.76</v>
+        <v>198145.08</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -671,7 +671,7 @@
         <v>5892</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>4348</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>96455.00999999999</v>
+        <v>100803.01</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -772,7 +772,7 @@
         <v>1815</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>2146</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>66225.89999999999</v>
+        <v>68371.89999999999</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -873,7 +873,7 @@
         <v>1812</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1171</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>59325.79</v>
+        <v>60496.79</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -974,7 +974,7 @@
         <v>16345.2</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>14310.32</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>413506.46</v>
+        <v>427816.78</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -573,7 +573,7 @@
         <v>6645.32</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>7628.97</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>198145.08</v>
+        <v>205774.05</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -674,7 +674,7 @@
         <v>4348</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>3791</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>100803.01</v>
+        <v>104594.01</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -772,10 +772,10 @@
         <v>1815</v>
       </c>
       <c r="X4">
-        <v>2146</v>
+        <v>2636</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>2563</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>68371.89999999999</v>
+        <v>71424.89999999999</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -876,7 +876,7 @@
         <v>1171</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1047</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>60496.79</v>
+        <v>61543.79</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -974,10 +974,10 @@
         <v>16345.2</v>
       </c>
       <c r="X6">
-        <v>14310.32</v>
+        <v>14800.32</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>15029.97</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>427816.78</v>
+        <v>443336.75</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -576,10 +576,10 @@
         <v>7628.97</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>9225.299999999999</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>3290</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>205774.05</v>
+        <v>218289.35</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -677,10 +677,10 @@
         <v>3791</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>7566.9</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>2609</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>104594.01</v>
+        <v>114769.91</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -778,13 +778,13 @@
         <v>2563</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>2755</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>2238</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>2667</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>71424.89999999999</v>
+        <v>79084.89999999999</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -879,13 +879,13 @@
         <v>1047</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1502.9</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1823</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>61543.79</v>
+        <v>65879.69</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -980,13 +980,13 @@
         <v>15029.97</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>21050.1</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>9960</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>3677</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>443336.75</v>
+        <v>478023.85</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>15251.87</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>218289.35</v>
+        <v>233541.22</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>4627</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>114769.91</v>
+        <v>119396.91</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -787,7 +787,7 @@
         <v>2667</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>2421</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>79084.89999999999</v>
+        <v>81505.89999999999</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -888,7 +888,7 @@
         <v>1010</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>2082.1</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>65879.69</v>
+        <v>67961.78999999999</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -989,7 +989,7 @@
         <v>3677</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>24381.97</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>478023.85</v>
+        <v>502405.82</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -588,7 +588,7 @@
         <v>15251.87</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>10399.36</v>
       </c>
       <c r="AE2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>233541.22</v>
+        <v>243940.58</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -689,7 +689,7 @@
         <v>4627</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>5124.9</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>119396.91</v>
+        <v>124521.81</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -790,7 +790,7 @@
         <v>2421</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>3131</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>81505.89999999999</v>
+        <v>84636.89999999999</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -891,7 +891,7 @@
         <v>2082.1</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1877.5</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>67961.78999999999</v>
+        <v>69839.28999999999</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -992,7 +992,7 @@
         <v>24381.97</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>20532.76</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>502405.82</v>
+        <v>522938.58</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -591,13 +591,13 @@
         <v>10399.36</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>52004.8</v>
       </c>
       <c r="AF2">
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>243940.58</v>
+        <v>295945.38</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -692,13 +692,13 @@
         <v>5124.9</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>7050</v>
       </c>
       <c r="AF3">
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>124521.81</v>
+        <v>131571.81</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -793,13 +793,13 @@
         <v>3131</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>3377</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>84636.89999999999</v>
+        <v>88013.89999999999</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -894,13 +894,13 @@
         <v>1877.5</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>2015</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>69839.28999999999</v>
+        <v>71854.28999999999</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -995,13 +995,13 @@
         <v>20532.76</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>64446.8</v>
       </c>
       <c r="AF6">
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>522938.58</v>
+        <v>587385.38</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -594,10 +594,10 @@
         <v>52004.8</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>13791.76</v>
       </c>
       <c r="AG2">
-        <v>295945.38</v>
+        <v>309737.14</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -695,10 +695,10 @@
         <v>7050</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>9630</v>
       </c>
       <c r="AG3">
-        <v>131571.81</v>
+        <v>141201.81</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -796,10 +796,10 @@
         <v>3377</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>2774.9</v>
       </c>
       <c r="AG4">
-        <v>88013.89999999999</v>
+        <v>90788.8</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -897,10 +897,10 @@
         <v>2015</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1228</v>
       </c>
       <c r="AG5">
-        <v>71854.28999999999</v>
+        <v>73082.28999999999</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -998,10 +998,10 @@
         <v>64446.8</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>27424.66</v>
       </c>
       <c r="AG6">
-        <v>587385.38</v>
+        <v>614810.04</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -22,13 +22,13 @@
     <t>nome</t>
   </si>
   <si>
-    <t>Bibi Cell Mundi</t>
-  </si>
-  <si>
     <t>Bibi Cell Vieiralves</t>
   </si>
   <si>
     <t>Bibi Cell Manauara</t>
+  </si>
+  <si>
+    <t>Bibi Cell Mundi</t>
   </si>
   <si>
     <t>Bibi Cell Ponta Negra</t>
@@ -504,100 +504,100 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>6805.15</v>
+        <v>8802</v>
       </c>
       <c r="C2">
-        <v>11735.4</v>
+        <v>7274</v>
       </c>
       <c r="D2">
-        <v>12213.72</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>14184.24</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1995.8</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>11736.16</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>7827.31</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>9093.950000000001</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12113</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>16641.22</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1882</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14226.84</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13557.03</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>9831.02</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>8100.92</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>13662.3</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>3320.9</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>15746.6</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>6826.2</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>6645.32</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>7628.97</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>9225.299999999999</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>3290</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>15251.87</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>10399.36</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>52004.8</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>13791.76</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>309737.14</v>
+        <v>16076</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -605,100 +605,100 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3638</v>
+        <v>2469.75</v>
       </c>
       <c r="C3">
-        <v>3280.25</v>
+        <v>5177</v>
       </c>
       <c r="D3">
-        <v>5521.8</v>
+        <v>3030</v>
       </c>
       <c r="E3">
-        <v>2850</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4180</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4097.5</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4772</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5820.5</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>3766</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>2865</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3923</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2253.06</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14954.9</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>6480</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>2690</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>4390</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>5081</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>5892</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>4348</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>3791</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>7566.9</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>2609</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>4627</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>5124.9</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>7050</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>9630</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>141201.81</v>
+        <v>10676.75</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -706,100 +706,100 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2756</v>
+        <v>8258</v>
       </c>
       <c r="C4">
-        <v>3763</v>
+        <v>2278</v>
       </c>
       <c r="D4">
-        <v>2753</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2701</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>6020</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3870.9</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3677</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1503</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1575.5</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3135</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>5175</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>2532</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1811</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2912.5</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>3175</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>2358</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>2521</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>5190</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>2247</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>2713</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>1815</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>2636</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>2563</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>2755</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>2238</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>2667</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>2421</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>3131</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>3377</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>2774.9</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>90788.8</v>
+        <v>10536</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -807,100 +807,100 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4535.01</v>
+        <v>2221.85</v>
       </c>
       <c r="C5">
-        <v>2416</v>
+        <v>6006.7</v>
       </c>
       <c r="D5">
-        <v>2403.81</v>
+        <v>1990</v>
       </c>
       <c r="E5">
-        <v>5469</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3040.95</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1795.75</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>2017.01</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>3863.5</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1824.02</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>2252</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>717</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1708.9</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1178.9</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1921.01</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>6521.01</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2904</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>3704.15</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>2947</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>2106.75</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>1486</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>2702.02</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1812</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>1171</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>1047</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1502.9</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>1823</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>1010</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>2082.1</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>1877.5</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1228</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>73082.28999999999</v>
+        <v>10218.55</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -908,100 +908,100 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>17734.16</v>
+        <v>21751.6</v>
       </c>
       <c r="C6">
-        <v>21194.65</v>
+        <v>20735.7</v>
       </c>
       <c r="D6">
-        <v>22892.33</v>
+        <v>5020</v>
       </c>
       <c r="E6">
-        <v>25204.24</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>15236.75</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>5666.65</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>21527.67</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>17965.81</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>18313.97</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>21266</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>25398.22</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>10045.9</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2989.9</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>21313.41</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>32100.04</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>30864.92</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>20643.07</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>21820.3</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>15007.65</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>3733</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>26242.62</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>16345.2</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>14800.32</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>15029.97</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>21050.1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>9960</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>3677</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>24381.97</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>20532.76</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>64446.8</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>27424.66</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>614810.04</v>
+        <v>47507.3</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -22,13 +22,13 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Bibi Cell Mundi</t>
+  </si>
+  <si>
     <t>Bibi Cell Vieiralves</t>
   </si>
   <si>
     <t>Bibi Cell Manauara</t>
-  </si>
-  <si>
-    <t>Bibi Cell Mundi</t>
   </si>
   <si>
     <t>Bibi Cell Ponta Negra</t>
@@ -504,16 +504,16 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>8802</v>
+        <v>8258</v>
       </c>
       <c r="C2">
-        <v>7274</v>
+        <v>2278</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>15207.62</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>16076</v>
+        <v>25743.62</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -605,16 +605,16 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2469.75</v>
+        <v>8802</v>
       </c>
       <c r="C3">
-        <v>5177</v>
+        <v>7274</v>
       </c>
       <c r="D3">
-        <v>3030</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3319.4</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>10676.75</v>
+        <v>19395.4</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -706,16 +706,16 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>8258</v>
+        <v>2469.75</v>
       </c>
       <c r="C4">
-        <v>2278</v>
+        <v>5177</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3030</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4202</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>10536</v>
+        <v>14878.75</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -816,7 +816,7 @@
         <v>1990</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2180</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>10218.55</v>
+        <v>12398.55</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -917,7 +917,7 @@
         <v>5020</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>24909.02</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>47507.3</v>
+        <v>72416.32000000001</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -516,7 +516,7 @@
         <v>15207.62</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>14123.07</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>25743.62</v>
+        <v>39866.69</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -617,7 +617,7 @@
         <v>3319.4</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>3535.9</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>19395.4</v>
+        <v>22931.3</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -718,7 +718,7 @@
         <v>4202</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1843</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>14878.75</v>
+        <v>16721.75</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -819,7 +819,7 @@
         <v>2180</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1546</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>12398.55</v>
+        <v>13944.55</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -920,7 +920,7 @@
         <v>24909.02</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>21047.97</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>72416.32000000001</v>
+        <v>93464.28999999999</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -519,7 +519,7 @@
         <v>14123.07</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>5403.09</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>39866.69</v>
+        <v>45269.78</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -620,7 +620,7 @@
         <v>3535.9</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>8020.9</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>22931.3</v>
+        <v>30952.2</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -721,7 +721,7 @@
         <v>1843</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1287</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>16721.75</v>
+        <v>18008.75</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -822,7 +822,7 @@
         <v>1546</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1823</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>13944.55</v>
+        <v>15767.55</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -923,7 +923,7 @@
         <v>21047.97</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>16533.99</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>93464.28999999999</v>
+        <v>109998.28</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -522,13 +522,13 @@
         <v>5403.09</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>16224.4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>22772.55</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2365</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>45269.78</v>
+        <v>86631.73</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -623,13 +623,13 @@
         <v>8020.9</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6192</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>9352</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5889</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>30952.2</v>
+        <v>52385.2</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -724,16 +724,16 @@
         <v>1287</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3537</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3125</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4680.4</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1488</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>18008.75</v>
+        <v>30839.15</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -825,16 +825,16 @@
         <v>1823</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2554</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2532.9</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>3252.89</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1209.99</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>15767.55</v>
+        <v>25317.33</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -926,16 +926,16 @@
         <v>16533.99</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>28507.4</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>37782.45</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>16187.29</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2697.99</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>109998.28</v>
+        <v>195173.41</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>20151.8</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>86631.73</v>
+        <v>106783.53</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>4295</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>52385.2</v>
+        <v>56680.2</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -736,7 +736,7 @@
         <v>1488</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2671</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>30839.15</v>
+        <v>33510.15</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -837,7 +837,7 @@
         <v>1209.99</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5724</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>25317.33</v>
+        <v>31041.33</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -938,7 +938,7 @@
         <v>2697.99</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>32841.8</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>195173.41</v>
+        <v>228015.21</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -537,10 +537,10 @@
         <v>20151.8</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>15255.05</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>15470.5</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>106783.53</v>
+        <v>137509.08</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -638,10 +638,10 @@
         <v>4295</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6978</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6459.2</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>56680.2</v>
+        <v>70117.39999999999</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -739,10 +739,10 @@
         <v>2671</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2161</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2235</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>33510.15</v>
+        <v>37906.15</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -840,10 +840,10 @@
         <v>5724</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>4004.03</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>987</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>31041.33</v>
+        <v>36032.36</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -941,10 +941,10 @@
         <v>32841.8</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>28398.08</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>25151.7</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>228015.21</v>
+        <v>281564.99</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -543,7 +543,7 @@
         <v>15470.5</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>14329.8</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>137509.08</v>
+        <v>151838.88</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -644,7 +644,7 @@
         <v>6459.2</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2756.9</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>70117.39999999999</v>
+        <v>72874.3</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -745,7 +745,7 @@
         <v>2235</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2421</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>37906.15</v>
+        <v>40327.15</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -846,7 +846,7 @@
         <v>987</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1726.26</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>36032.36</v>
+        <v>37758.62</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -947,7 +947,7 @@
         <v>25151.7</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>21233.96</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>281564.99</v>
+        <v>302798.95</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -28,10 +28,10 @@
     <t>Bibi Cell Vieiralves</t>
   </si>
   <si>
-    <t>Bibi Cell Manauara</t>
+    <t>Bibi Cell Ponta Negra</t>
   </si>
   <si>
-    <t>Bibi Cell Ponta Negra</t>
+    <t>Bibi Cell Manauara</t>
   </si>
   <si>
     <t>total</t>
@@ -546,10 +546,10 @@
         <v>14329.8</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>33123.8</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>4080.9</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>151838.88</v>
+        <v>189043.58</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -647,10 +647,10 @@
         <v>2756.9</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5712</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2063</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>72874.3</v>
+        <v>80649.3</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -706,55 +706,55 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2469.75</v>
+        <v>2221.85</v>
       </c>
       <c r="C4">
-        <v>5177</v>
+        <v>6006.7</v>
       </c>
       <c r="D4">
-        <v>3030</v>
+        <v>1990</v>
       </c>
       <c r="E4">
-        <v>4202</v>
+        <v>2180</v>
       </c>
       <c r="F4">
-        <v>1843</v>
+        <v>1546</v>
       </c>
       <c r="G4">
-        <v>1287</v>
+        <v>1823</v>
       </c>
       <c r="H4">
-        <v>3537</v>
+        <v>2554</v>
       </c>
       <c r="I4">
-        <v>3125</v>
+        <v>2532.9</v>
       </c>
       <c r="J4">
-        <v>4680.4</v>
+        <v>3252.89</v>
       </c>
       <c r="K4">
-        <v>1488</v>
+        <v>1209.99</v>
       </c>
       <c r="L4">
-        <v>2671</v>
+        <v>5724</v>
       </c>
       <c r="M4">
-        <v>2161</v>
+        <v>4004.03</v>
       </c>
       <c r="N4">
-        <v>2235</v>
+        <v>987</v>
       </c>
       <c r="O4">
-        <v>2421</v>
+        <v>1726.26</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1944</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>10921.7</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>2488</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>40327.15</v>
+        <v>53112.32</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -807,55 +807,55 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2221.85</v>
+        <v>2469.75</v>
       </c>
       <c r="C5">
-        <v>6006.7</v>
+        <v>5177</v>
       </c>
       <c r="D5">
-        <v>1990</v>
+        <v>3030</v>
       </c>
       <c r="E5">
-        <v>2180</v>
+        <v>4202</v>
       </c>
       <c r="F5">
-        <v>1546</v>
+        <v>1843</v>
       </c>
       <c r="G5">
-        <v>1823</v>
+        <v>1287</v>
       </c>
       <c r="H5">
-        <v>2554</v>
+        <v>3537</v>
       </c>
       <c r="I5">
-        <v>2532.9</v>
+        <v>3125</v>
       </c>
       <c r="J5">
-        <v>3252.89</v>
+        <v>4680.4</v>
       </c>
       <c r="K5">
-        <v>1209.99</v>
+        <v>1488</v>
       </c>
       <c r="L5">
-        <v>5724</v>
+        <v>2671</v>
       </c>
       <c r="M5">
-        <v>4004.03</v>
+        <v>2161</v>
       </c>
       <c r="N5">
-        <v>987</v>
+        <v>2235</v>
       </c>
       <c r="O5">
-        <v>1726.26</v>
+        <v>2421</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>2192</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>3886.9</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1389</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>37758.62</v>
+        <v>47795.05</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -950,13 +950,13 @@
         <v>21233.96</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>42971.8</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>20952.5</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>3877</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>302798.95</v>
+        <v>370600.25</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>44502.09</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>189043.58</v>
+        <v>233545.67</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -650,13 +650,13 @@
         <v>5712</v>
       </c>
       <c r="Q3">
-        <v>2063</v>
+        <v>2253</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>3548</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>80649.3</v>
+        <v>84387.3</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -757,7 +757,7 @@
         <v>2488</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>2255.01</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>53112.32</v>
+        <v>55367.33</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -858,7 +858,7 @@
         <v>1389</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1209</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>47795.05</v>
+        <v>49004.05</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -953,13 +953,13 @@
         <v>42971.8</v>
       </c>
       <c r="Q6">
-        <v>20952.5</v>
+        <v>21142.5</v>
       </c>
       <c r="R6">
         <v>3877</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>51514.1</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>370600.25</v>
+        <v>422304.35</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -558,7 +558,7 @@
         <v>44502.09</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>9216.52</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>233545.67</v>
+        <v>242762.19</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -659,7 +659,7 @@
         <v>3548</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>3678</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>84387.3</v>
+        <v>88065.3</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -760,7 +760,7 @@
         <v>2255.01</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>55367.33</v>
+        <v>56517.33</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -861,7 +861,7 @@
         <v>1209</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1503</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>49004.05</v>
+        <v>50507.05</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -962,7 +962,7 @@
         <v>51514.1</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>15547.52</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>422304.35</v>
+        <v>437851.87</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/faturamento_diario_lojas.xlsx
@@ -561,10 +561,10 @@
         <v>9216.52</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>11327.32</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>11358.8</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>242762.19</v>
+        <v>265448.31</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -659,13 +659,13 @@
         <v>3548</v>
       </c>
       <c r="T3">
-        <v>3678</v>
+        <v>4166</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>4111</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>4918.9</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>88065.3</v>
+        <v>97583.2</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -763,10 +763,10 @@
         <v>1150</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>6422</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1952</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>56517.33</v>
+        <v>64891.33</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -864,10 +864,10 @@
         <v>1503</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>2560</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>2505</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>50507.05</v>
+        <v>55572.05</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -962,13 +962,13 @@
         <v>51514.1</v>
       </c>
       <c r="T6">
-        <v>15547.52</v>
+        <v>16035.52</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>24420.32</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>20734.7</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1001,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>437851.87</v>
+        <v>483494.89</v>
       </c>
     </row>
   </sheetData>
